--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value633.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value633.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.217831614477602</v>
+        <v>1.199797511100769</v>
       </c>
       <c r="B1">
-        <v>2.315586184946408</v>
+        <v>2.398146867752075</v>
       </c>
       <c r="C1">
-        <v>3.586929573328104</v>
+        <v>4.475554943084717</v>
       </c>
       <c r="D1">
-        <v>3.247488847591377</v>
+        <v>2.653626918792725</v>
       </c>
       <c r="E1">
-        <v>1.111430928243997</v>
+        <v>1.105576515197754</v>
       </c>
     </row>
   </sheetData>
